--- a/static/tables/pet_lost.xlsx
+++ b/static/tables/pet_lost.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lily\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\petmap\static\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6509C638-16BF-435E-8B21-B3FFF7B8D94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1377">
   <si>
     <t>晶片號碼</t>
   </si>
@@ -4148,12 +4147,16 @@
   </si>
   <si>
     <t>https://www.pet.gov.tw/XMLRequest/PET_PIC.ashx?File_No=L174972000081901</t>
+  </si>
+  <si>
+    <t>文案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5105,13 +5108,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P232"/>
+  <dimension ref="A1:Q232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="77.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5160,8 +5168,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>900000000000000</v>
       </c>
@@ -5205,7 +5216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>992000000000000</v>
       </c>
@@ -5255,7 +5266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>900000000000000</v>
       </c>
@@ -5302,7 +5313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>900000000000000</v>
       </c>
@@ -5352,7 +5363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>900000000000000</v>
       </c>
@@ -5402,7 +5413,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>900000000000000</v>
       </c>
@@ -5452,7 +5463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>992000000000000</v>
       </c>
@@ -5502,7 +5513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>900000000000000</v>
       </c>
@@ -5552,7 +5563,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>992000000000000</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>992000000000000</v>
       </c>
@@ -5649,7 +5660,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>992000000000000</v>
       </c>
@@ -5699,7 +5710,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>900000000000000</v>
       </c>
@@ -5746,7 +5757,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>900000000000000</v>
       </c>
@@ -5796,7 +5807,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>900000000000000</v>
       </c>
@@ -5846,7 +5857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>900000000000000</v>
       </c>
@@ -5890,7 +5901,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>992000000000000</v>
       </c>
@@ -5934,7 +5945,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>992000000000000</v>
       </c>
@@ -5981,7 +5992,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>900000000000000</v>
       </c>
@@ -6031,7 +6042,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>900000000000000</v>
       </c>
@@ -6081,7 +6092,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>900000000000000</v>
       </c>
@@ -6125,7 +6136,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>992000000000000</v>
       </c>
@@ -6172,7 +6183,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>900000000000000</v>
       </c>
@@ -6222,7 +6233,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>900000000000000</v>
       </c>
@@ -6272,7 +6283,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>900000000000000</v>
       </c>
@@ -6319,7 +6330,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>900000000000000</v>
       </c>
@@ -6366,7 +6377,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>990000000000000</v>
       </c>
@@ -6413,7 +6424,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>900000000000000</v>
       </c>
@@ -6460,7 +6471,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>992000000000000</v>
       </c>
@@ -6510,7 +6521,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>900000000000000</v>
       </c>
@@ -6560,7 +6571,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>900000000000000</v>
       </c>
@@ -6610,7 +6621,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>900000000000000</v>
       </c>
@@ -6660,7 +6671,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>900000000000000</v>
       </c>
@@ -6707,7 +6718,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>900000000000000</v>
       </c>
@@ -6757,7 +6768,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>900000000000000</v>
       </c>
@@ -6798,7 +6809,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>992000000000000</v>
       </c>
@@ -6848,7 +6859,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>992000000000000</v>
       </c>
@@ -6895,7 +6906,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>992000000000000</v>
       </c>
@@ -6945,7 +6956,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>992000000000000</v>
       </c>
@@ -6995,7 +7006,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>992000000000000</v>
       </c>
@@ -7045,7 +7056,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>900000000000000</v>
       </c>
@@ -7092,7 +7103,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>900000000000000</v>
       </c>
@@ -7142,7 +7153,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>990000000000000</v>
       </c>
@@ -7192,7 +7203,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>992000000000000</v>
       </c>
@@ -7242,7 +7253,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>992000000000000</v>
       </c>
@@ -7286,7 +7297,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>900000000000000</v>
       </c>
@@ -7333,7 +7344,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>900000000000000</v>
       </c>
@@ -7374,7 +7385,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>992000000000000</v>
       </c>
@@ -7421,7 +7432,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>900000000000000</v>
       </c>
@@ -7468,7 +7479,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>900000000000000</v>
       </c>
@@ -7515,7 +7526,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>900000000000000</v>
       </c>
@@ -7565,7 +7576,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>900000000000000</v>
       </c>
@@ -7609,7 +7620,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>900000000000000</v>
       </c>
@@ -7659,7 +7670,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>992000000000000</v>
       </c>
@@ -7709,7 +7720,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>992000000000000</v>
       </c>
@@ -7759,7 +7770,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>953000000000000</v>
       </c>
@@ -7809,7 +7820,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>900000000000000</v>
       </c>
@@ -7856,7 +7867,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>992000000000000</v>
       </c>
@@ -7906,7 +7917,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>900000000000000</v>
       </c>
@@ -7956,7 +7967,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>86000000000000</v>
       </c>
@@ -8003,7 +8014,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>900000000000000</v>
       </c>
@@ -8053,7 +8064,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>900000000000000</v>
       </c>
@@ -8103,7 +8114,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>992000000000000</v>
       </c>
@@ -8150,7 +8161,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>900000000000000</v>
       </c>
@@ -8191,7 +8202,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>990000000000000</v>
       </c>
@@ -8241,7 +8252,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>900000000000000</v>
       </c>
@@ -8285,7 +8296,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>992000000000000</v>
       </c>
@@ -8332,7 +8343,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>953000000000000</v>
       </c>
@@ -8373,7 +8384,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>900000000000000</v>
       </c>
@@ -8420,7 +8431,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>992000000000000</v>
       </c>
@@ -8470,7 +8481,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>900000000000000</v>
       </c>
@@ -8517,7 +8528,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>900000000000000</v>
       </c>
@@ -8564,7 +8575,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>992000000000000</v>
       </c>
@@ -8614,7 +8625,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>900000000000000</v>
       </c>
@@ -8664,7 +8675,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>900000000000000</v>
       </c>
@@ -8711,7 +8722,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>992000000000000</v>
       </c>
@@ -8755,7 +8766,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>992000000000000</v>
       </c>
@@ -8805,7 +8816,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>900000000000000</v>
       </c>
@@ -8855,7 +8866,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>992000000000000</v>
       </c>
@@ -8905,7 +8916,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>900000000000000</v>
       </c>
@@ -8955,7 +8966,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>990000000000000</v>
       </c>
@@ -9005,7 +9016,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>900000000000000</v>
       </c>
@@ -9055,7 +9066,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>990000000000000</v>
       </c>
@@ -9099,7 +9110,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>990000000000000</v>
       </c>
@@ -9149,7 +9160,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>700000000000000</v>
       </c>
@@ -9196,7 +9207,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>900000000000000</v>
       </c>
@@ -9243,7 +9254,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>992000000000000</v>
       </c>
@@ -9290,7 +9301,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>992000000000000</v>
       </c>
@@ -9331,7 +9342,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>900000000000000</v>
       </c>
@@ -9381,7 +9392,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>900000000000000</v>
       </c>
@@ -9425,7 +9436,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>900000000000000</v>
       </c>
@@ -9472,7 +9483,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>992000000000000</v>
       </c>
@@ -9522,7 +9533,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>900000000000000</v>
       </c>
@@ -9569,7 +9580,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>990000000000000</v>
       </c>
@@ -9616,7 +9627,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>900000000000000</v>
       </c>
@@ -9666,7 +9677,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>900000000000000</v>
       </c>
@@ -9716,7 +9727,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>992000000000000</v>
       </c>
@@ -9763,7 +9774,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>981000000000000</v>
       </c>
@@ -9813,7 +9824,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>992000000000000</v>
       </c>
@@ -9857,7 +9868,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>992000000000000</v>
       </c>
@@ -9907,7 +9918,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>992000000000000</v>
       </c>
@@ -9957,7 +9968,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>992000000000000</v>
       </c>
@@ -10007,7 +10018,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>992000000000000</v>
       </c>
@@ -10057,7 +10068,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>900000000000000</v>
       </c>
@@ -10107,7 +10118,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>992000000000000</v>
       </c>
@@ -10151,7 +10162,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>900000000000000</v>
       </c>
@@ -10198,7 +10209,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>900000000000000</v>
       </c>
@@ -10245,7 +10256,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>696</v>
       </c>
@@ -10295,7 +10306,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>900000000000000</v>
       </c>
@@ -10345,7 +10356,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>900000000000000</v>
       </c>
@@ -10395,7 +10406,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>900000000000000</v>
       </c>
@@ -10445,7 +10456,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>900000000000000</v>
       </c>
@@ -10495,7 +10506,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>992000000000000</v>
       </c>
@@ -10545,7 +10556,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>992000000000000</v>
       </c>
@@ -10592,7 +10603,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>992000000000000</v>
       </c>
@@ -10633,7 +10644,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>900000000000000</v>
       </c>
@@ -10680,7 +10691,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>992000000000000</v>
       </c>
@@ -10727,7 +10738,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>900000000000000</v>
       </c>
@@ -10777,7 +10788,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>990000000000000</v>
       </c>
@@ -10827,7 +10838,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>992000000000000</v>
       </c>
@@ -10877,7 +10888,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>992000000000000</v>
       </c>
@@ -10924,7 +10935,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>789</v>
       </c>
@@ -10971,7 +10982,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>700000000000000</v>
       </c>
@@ -11018,7 +11029,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>992000000000000</v>
       </c>
@@ -11056,7 +11067,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>900000000000000</v>
       </c>
@@ -11097,7 +11108,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>990000000000000</v>
       </c>
@@ -11147,7 +11158,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>992000000000000</v>
       </c>
@@ -11194,7 +11205,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>900000000000000</v>
       </c>
@@ -11241,7 +11252,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>900000000000000</v>
       </c>
@@ -11288,7 +11299,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>900000000000000</v>
       </c>
@@ -11323,7 +11334,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>992000000000000</v>
       </c>
@@ -11370,7 +11381,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>900000000000000</v>
       </c>
@@ -11420,7 +11431,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>900000000000000</v>
       </c>
@@ -11470,7 +11481,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>900000000000000</v>
       </c>
@@ -11514,7 +11525,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>900000000000000</v>
       </c>
@@ -11558,7 +11569,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>992000000000000</v>
       </c>
@@ -11605,7 +11616,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>992000000000000</v>
       </c>
@@ -11652,7 +11663,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>900000000000000</v>
       </c>
@@ -11702,7 +11713,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>700000000000000</v>
       </c>
@@ -11749,7 +11760,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>900000000000000</v>
       </c>
@@ -11799,7 +11810,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>900000000000000</v>
       </c>
@@ -11846,7 +11857,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>900000000000000</v>
       </c>
@@ -11896,7 +11907,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>900000000000000</v>
       </c>
@@ -11940,7 +11951,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>900000000000000</v>
       </c>
@@ -11987,7 +11998,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>900000000000000</v>
       </c>
@@ -12037,7 +12048,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>900000000000000</v>
       </c>
@@ -12084,7 +12095,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>900000000000000</v>
       </c>
@@ -12134,7 +12145,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>900000000000000</v>
       </c>
@@ -12178,7 +12189,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>945000000000000</v>
       </c>
@@ -12219,7 +12230,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>900000000000000</v>
       </c>
@@ -12269,7 +12280,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>992000000000000</v>
       </c>
@@ -12319,7 +12330,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>990000000000000</v>
       </c>
@@ -12351,7 +12362,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>900000000000000</v>
       </c>
@@ -12386,7 +12397,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>992000000000000</v>
       </c>
@@ -12436,7 +12447,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>990000000000000</v>
       </c>
@@ -12486,7 +12497,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>900000000000000</v>
       </c>
@@ -12530,7 +12541,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>900000000000000</v>
       </c>
@@ -12580,7 +12591,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>900000000000000</v>
       </c>
@@ -12627,7 +12638,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>900000000000000</v>
       </c>
@@ -12674,7 +12685,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>900000000000000</v>
       </c>
@@ -12724,7 +12735,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>992000000000000</v>
       </c>
@@ -12771,7 +12782,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>992000000000000</v>
       </c>
@@ -12821,7 +12832,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>900000000000000</v>
       </c>
@@ -12868,7 +12879,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>900000000000000</v>
       </c>
@@ -12909,7 +12920,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>900000000000000</v>
       </c>
@@ -12956,7 +12967,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>900000000000000</v>
       </c>
@@ -13000,7 +13011,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>900000000000000</v>
       </c>
@@ -13044,7 +13055,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>900000000000000</v>
       </c>
@@ -13091,7 +13102,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>900000000000000</v>
       </c>
@@ -13138,7 +13149,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>900000000000000</v>
       </c>
@@ -13179,7 +13190,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>900000000000000</v>
       </c>
@@ -13226,7 +13237,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>900000000000000</v>
       </c>
@@ -13270,7 +13281,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>992000000000000</v>
       </c>
@@ -13320,7 +13331,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>992000000000000</v>
       </c>
@@ -13361,7 +13372,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>992000000000000</v>
       </c>
@@ -13408,7 +13419,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>900000000000000</v>
       </c>
@@ -13458,7 +13469,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>900000000000000</v>
       </c>
@@ -13508,7 +13519,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>900000000000000</v>
       </c>
@@ -13546,7 +13557,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>992000000000000</v>
       </c>
@@ -13587,7 +13598,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>992000000000000</v>
       </c>
@@ -13634,7 +13645,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>900000000000000</v>
       </c>
@@ -13681,7 +13692,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>900000000000000</v>
       </c>
@@ -13728,7 +13739,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>900000000000000</v>
       </c>
@@ -13769,7 +13780,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>900000000000000</v>
       </c>
@@ -13810,7 +13821,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>900000000000000</v>
       </c>
@@ -13851,7 +13862,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>900000000000000</v>
       </c>
@@ -13892,7 +13903,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>900000000000000</v>
       </c>
@@ -13936,7 +13947,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>900000000000000</v>
       </c>
@@ -13980,7 +13991,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>900000000000000</v>
       </c>
@@ -14030,7 +14041,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>900000000000000</v>
       </c>
@@ -14071,7 +14082,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>992000000000000</v>
       </c>
@@ -14115,7 +14126,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>992000000000000</v>
       </c>
@@ -14159,7 +14170,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>992000000000000</v>
       </c>
@@ -14203,7 +14214,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>900000000000000</v>
       </c>
@@ -14250,7 +14261,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>900000000000000</v>
       </c>
@@ -14297,7 +14308,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>900000000000000</v>
       </c>
@@ -14347,7 +14358,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>900000000000000</v>
       </c>
@@ -14397,7 +14408,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>158000000000000</v>
       </c>
@@ -14438,7 +14449,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>900000000000000</v>
       </c>
@@ -14473,7 +14484,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>900000000000000</v>
       </c>
@@ -14520,7 +14531,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>900000000000000</v>
       </c>
@@ -14567,7 +14578,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1211</v>
       </c>
@@ -14608,7 +14619,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>900000000000000</v>
       </c>
@@ -14655,7 +14666,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>945000000000000</v>
       </c>
@@ -14690,7 +14701,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>900000000000000</v>
       </c>
@@ -14737,7 +14748,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>900000000000000</v>
       </c>
@@ -14787,7 +14798,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>900000000000000</v>
       </c>
@@ -14828,7 +14839,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1239</v>
       </c>
@@ -14872,7 +14883,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1245</v>
       </c>
@@ -14907,7 +14918,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>900000000000000</v>
       </c>
@@ -14954,7 +14965,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1253</v>
       </c>
@@ -15001,7 +15012,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1259</v>
       </c>
@@ -15048,7 +15059,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>900000000000000</v>
       </c>
@@ -15089,7 +15100,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>900000000000000</v>
       </c>
@@ -15139,7 +15150,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>6062073</v>
       </c>
@@ -15177,7 +15188,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>900000000000000</v>
       </c>
@@ -15224,7 +15235,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>900000000000000</v>
       </c>
@@ -15271,7 +15282,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>900000000000000</v>
       </c>
@@ -15312,7 +15323,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>158000000000000</v>
       </c>
@@ -15356,7 +15367,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>900000000000000</v>
       </c>
@@ -15397,7 +15408,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1301</v>
       </c>
@@ -15444,7 +15455,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>985000000000000</v>
       </c>
@@ -15494,7 +15505,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1314</v>
       </c>
@@ -15544,7 +15555,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1321</v>
       </c>
@@ -15591,7 +15602,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1329</v>
       </c>
@@ -15638,7 +15649,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2045025</v>
       </c>
@@ -15688,7 +15699,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1344</v>
       </c>
@@ -15729,7 +15740,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1349</v>
       </c>
@@ -15773,7 +15784,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1355</v>
       </c>
@@ -15817,7 +15828,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1357</v>
       </c>
@@ -15861,7 +15872,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1363</v>
       </c>
@@ -15905,7 +15916,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1369</v>
       </c>
